--- a/data/b/28-04-2024.xlsx
+++ b/data/b/28-04-2024.xlsx
@@ -13,30 +13,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Geetika Anand</t>
+    <t>Umesh Raghunandanlal Anand</t>
   </si>
   <si>
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>+919769499764</t>
+    <t>+919702366423</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>geetikanand@gmail.com</t>
+    <t>umesh.r.anand@gmail.com</t>
   </si>
   <si>
     <t>PAN</t>
   </si>
   <si>
-    <t>AKDPA0263E</t>
+    <t>AIXPA3414D</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -78,64 +78,40 @@
     <t>Units</t>
   </si>
   <si>
+    <t xml:space="preserve">HDFC Liquid Fund-Direct Plan-Growth Option </t>
+  </si>
+  <si>
+    <t>HDFC Mutual Fund</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>23540205</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">HDFC Small Cap Fund - Direct Growth Plan </t>
   </si>
   <si>
-    <t>HDFC Mutual Fund</t>
-  </si>
-  <si>
     <t>EQUITY</t>
   </si>
   <si>
-    <t>23481917</t>
-  </si>
-  <si>
-    <t>250000</t>
-  </si>
-  <si>
-    <t>315387.88</t>
-  </si>
-  <si>
-    <t>65387.88</t>
-  </si>
-  <si>
-    <t>2234.274</t>
-  </si>
-  <si>
-    <t>ICICI Prudential Liquid Fund - Direct Plan - Growth (formerly ICICI Prudential Liquid Plan)</t>
-  </si>
-  <si>
-    <t>ICICI Prudential Mutual Fund</t>
-  </si>
-  <si>
-    <t>CASH</t>
-  </si>
-  <si>
-    <t>20678951</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>0.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICICI Prudential Nifty Alpha Low-Volatility 30 ETF FOF Direct Plan Growth </t>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
-    <t>1909491.37</t>
-  </si>
-  <si>
-    <t>409491.37</t>
-  </si>
-  <si>
-    <t>128973.501</t>
+    <t xml:space="preserve">Navi Liquid Fund - Direct Plan - Growth </t>
+  </si>
+  <si>
+    <t>NAVI MF</t>
+  </si>
+  <si>
+    <t>9775075318</t>
   </si>
   <si>
     <t>Parag Parikh Flexi Cap Fund - Direct Plan (formerly Parag Parikh Long Term Value Fund)</t>
@@ -144,106 +120,121 @@
     <t>PPFAS Mutual Fund</t>
   </si>
   <si>
-    <t>11843506</t>
-  </si>
-  <si>
-    <t>3178142.68</t>
-  </si>
-  <si>
-    <t>4078200.64</t>
-  </si>
-  <si>
-    <t>900057.96</t>
-  </si>
-  <si>
-    <t>52677.544</t>
+    <t>10320728</t>
+  </si>
+  <si>
+    <t>153688.14</t>
+  </si>
+  <si>
+    <t>224623.25</t>
+  </si>
+  <si>
+    <t>70935.11</t>
+  </si>
+  <si>
+    <t>2844.236</t>
   </si>
   <si>
     <t xml:space="preserve">Parag Parikh Liquid Fund Direct Plan Growth </t>
   </si>
   <si>
-    <t>UTI Nifty200 Momentum 30 Index Fund - Direct Plan</t>
-  </si>
-  <si>
-    <t>UTI Mutual Fund</t>
-  </si>
-  <si>
-    <t>EQUITY FUND</t>
-  </si>
-  <si>
-    <t>599363825232</t>
-  </si>
-  <si>
-    <t>117678.44</t>
-  </si>
-  <si>
-    <t>121704.84</t>
-  </si>
-  <si>
-    <t>4026.4</t>
-  </si>
-  <si>
-    <t>5510.098</t>
-  </si>
-  <si>
-    <t>NIPPON INDIA GROWTH FUND - GROWTH PLAN GROWTH OPTION</t>
-  </si>
-  <si>
-    <t>Nippon India Mutual Fund</t>
-  </si>
-  <si>
-    <t>40487400561</t>
-  </si>
-  <si>
-    <t>5000.00</t>
-  </si>
-  <si>
-    <t>50649.19</t>
-  </si>
-  <si>
-    <t>45649.19</t>
-  </si>
-  <si>
-    <t>14.714</t>
-  </si>
-  <si>
-    <t>NIPPON INDIA SMALL CAP FUND - DIRECT GROWTH PLAN GROWTH OPTION</t>
-  </si>
-  <si>
-    <t>499291407191</t>
-  </si>
-  <si>
-    <t>366000.00</t>
-  </si>
-  <si>
-    <t>408248.19</t>
-  </si>
-  <si>
-    <t>42248.19</t>
-  </si>
-  <si>
-    <t>2403.568</t>
+    <t>11932510</t>
+  </si>
+  <si>
+    <t>260980.94</t>
+  </si>
+  <si>
+    <t>384858.03</t>
+  </si>
+  <si>
+    <t>123877.09</t>
+  </si>
+  <si>
+    <t>4873.169</t>
+  </si>
+  <si>
+    <t>12060935</t>
+  </si>
+  <si>
+    <t>232500.09</t>
+  </si>
+  <si>
+    <t>310084.28</t>
+  </si>
+  <si>
+    <t>77584.19</t>
+  </si>
+  <si>
+    <t>3926.365</t>
+  </si>
+  <si>
+    <t>quant Momentum Fund - Direct Plan Growth</t>
+  </si>
+  <si>
+    <t>Quant MF</t>
+  </si>
+  <si>
+    <t>51035280033</t>
+  </si>
+  <si>
+    <t>1870959.35</t>
+  </si>
+  <si>
+    <t>2242917.67</t>
+  </si>
+  <si>
+    <t>371958.32</t>
+  </si>
+  <si>
+    <t>155695.461</t>
   </si>
   <si>
     <t>quant Small Cap Fund - Direct Plan Growth</t>
   </si>
   <si>
-    <t>Quant MF</t>
-  </si>
-  <si>
-    <t>51035672773</t>
-  </si>
-  <si>
-    <t>450000.00</t>
-  </si>
-  <si>
-    <t>642392.95</t>
-  </si>
-  <si>
-    <t>192392.95</t>
-  </si>
-  <si>
-    <t>2381.176</t>
+    <t>51038374673</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>75597.67</t>
+  </si>
+  <si>
+    <t>15597.67</t>
+  </si>
+  <si>
+    <t>280.220</t>
+  </si>
+  <si>
+    <t>51038375554</t>
+  </si>
+  <si>
+    <t>31000.00</t>
+  </si>
+  <si>
+    <t>39185.23</t>
+  </si>
+  <si>
+    <t>8185.23</t>
+  </si>
+  <si>
+    <t>145.249</t>
+  </si>
+  <si>
+    <t>51061147463</t>
+  </si>
+  <si>
+    <t>1155000.00</t>
+  </si>
+  <si>
+    <t>1243786.14</t>
+  </si>
+  <si>
+    <t>88786.14</t>
+  </si>
+  <si>
+    <t>86339.262</t>
   </si>
   <si>
     <t>quant Quantamental Fund - Direct Plan</t>
@@ -252,108 +243,6 @@
     <t>Equity</t>
   </si>
   <si>
-    <t>400000.00</t>
-  </si>
-  <si>
-    <t>590328.69</t>
-  </si>
-  <si>
-    <t>190328.69</t>
-  </si>
-  <si>
-    <t>23773.380</t>
-  </si>
-  <si>
-    <t>51035672783</t>
-  </si>
-  <si>
-    <t>1760000.00</t>
-  </si>
-  <si>
-    <t>1976748.97</t>
-  </si>
-  <si>
-    <t>216748.97</t>
-  </si>
-  <si>
-    <t>7327.271</t>
-  </si>
-  <si>
-    <t>quant Liquid Fund - Direct Plan</t>
-  </si>
-  <si>
-    <t>LIQUID</t>
-  </si>
-  <si>
-    <t>144093.32</t>
-  </si>
-  <si>
-    <t>145703.58</t>
-  </si>
-  <si>
-    <t>1610.26</t>
-  </si>
-  <si>
-    <t>3731.196</t>
-  </si>
-  <si>
-    <t>quant Momentum Fund - Direct Plan Growth</t>
-  </si>
-  <si>
-    <t>1273500.00</t>
-  </si>
-  <si>
-    <t>1389579.30</t>
-  </si>
-  <si>
-    <t>116079.3</t>
-  </si>
-  <si>
-    <t>96459.711</t>
-  </si>
-  <si>
-    <t>quant Flexi Cap Fund - Direct Plan Growth</t>
-  </si>
-  <si>
-    <t>125000.00</t>
-  </si>
-  <si>
-    <t>149228.77</t>
-  </si>
-  <si>
-    <t>24228.77</t>
-  </si>
-  <si>
-    <t>1378.879</t>
-  </si>
-  <si>
-    <t>1625000.00</t>
-  </si>
-  <si>
-    <t>1922691.67</t>
-  </si>
-  <si>
-    <t>297691.67</t>
-  </si>
-  <si>
-    <t>77429.542</t>
-  </si>
-  <si>
-    <t>51061147413</t>
-  </si>
-  <si>
-    <t>1155000.00</t>
-  </si>
-  <si>
-    <t>1243786.14</t>
-  </si>
-  <si>
-    <t>88786.14</t>
-  </si>
-  <si>
-    <t>86339.262</t>
-  </si>
-  <si>
     <t>495000.00</t>
   </si>
   <si>
@@ -385,21 +274,6 @@
   </si>
   <si>
     <t>Amount</t>
-  </si>
-  <si>
-    <t>S T P Out</t>
-  </si>
-  <si>
-    <t>28-APR-2024</t>
-  </si>
-  <si>
-    <t>39.0501</t>
-  </si>
-  <si>
-    <t>-204.865</t>
-  </si>
-  <si>
-    <t>-8000.00</t>
   </si>
 </sst>
 </file>
@@ -484,14 +358,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="50.78125" customWidth="true"/>
-    <col min="2" max="2" width="29.296875" customWidth="true"/>
+    <col min="2" max="2" width="17.578125" customWidth="true"/>
     <col min="3" max="3" width="21.484375" customWidth="true"/>
     <col min="4" max="4" width="17.578125" customWidth="true"/>
     <col min="5" max="5" width="17.5" customWidth="true"/>
@@ -558,24 +432,24 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>119</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="2">
-        <v>1.2844414440000001E7</v>
+        <v>4259128.52</v>
       </c>
       <c r="B10" t="n" s="2">
-        <v>1.5482258540000003E7</v>
+        <v>5059168.63</v>
       </c>
       <c r="C10" t="n" s="2">
-        <v>2637844.0999999996</v>
+        <v>800040.11</v>
       </c>
     </row>
     <row r="12">
@@ -624,44 +498,44 @@
         <v>26</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>31</v>
-      </c>
       <c r="D14" t="s" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>23</v>
@@ -670,380 +544,302 @@
         <v>32</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>23</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>23</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E25" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="G25" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E27" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="E28" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="E29" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +849,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1061,8 +857,8 @@
   <cols>
     <col min="1" max="1" width="50.78125" customWidth="true"/>
     <col min="2" max="2" width="24.4140625" customWidth="true"/>
-    <col min="3" max="3" width="10.6640625" customWidth="true"/>
-    <col min="4" max="4" width="7.3828125" customWidth="true"/>
+    <col min="3" max="3" width="5.859375" customWidth="true"/>
+    <col min="4" max="4" width="4.8828125" customWidth="true"/>
     <col min="5" max="5" width="6.8359375" customWidth="true"/>
     <col min="6" max="6" width="7.8125" customWidth="true"/>
   </cols>
@@ -1128,39 +924,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s" s="3">
         <v>20</v>
       </c>
       <c r="F9" t="s" s="3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="4">
-        <v>88</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>124</v>
-      </c>
-      <c r="C10" t="s" s="4">
-        <v>125</v>
-      </c>
-      <c r="D10" t="s" s="4">
-        <v>126</v>
-      </c>
-      <c r="E10" t="s" s="4">
-        <v>127</v>
-      </c>
-      <c r="F10" t="s" s="4">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
